--- a/docs/assets/disciplinas/LOM3056.xlsx
+++ b/docs/assets/disciplinas/LOM3056.xlsx
@@ -131,7 +131,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4031 -  Química Geral I  (Requisito fraco)
+    <t xml:space="preserve">LOQ4100 -  Fundamentos de Química para Engenharia I (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/docs/assets/disciplinas/LOM3056.xlsx
+++ b/docs/assets/disciplinas/LOM3056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>5840963 - Daniela Camargo Vernilli</t>
   </si>
   <si>
     <t>1033242 - Fábio Herbst Florenzano</t>
@@ -488,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,98 +624,106 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3056.xlsx
+++ b/docs/assets/disciplinas/LOM3056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,8 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>- Apresentar aos alunos de Engenharia de Materiais os fundamentos de Química Orgânica, para estarem aptos à compreensão das estruturas dos compostos orgânicos e dos principais mecanismos de reação orgânica a serem utilizados principalmente na síntese e processamento de polímeros.
-- Ao final do curso, os alunos deverão compreender e representar os mecanismos de processos orgânicos, compreender e representar  as equações dos processos de obtenção e propriedades químicas dos compostos orgânicos, entender a importância das reações orgânicas e dos processos de síntese orgânica e conhecer as principais técnicas de identificação e caracterização de compostos orgânicos.</t>
+    <t>5840963 - Daniela Camargo Vernilli</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -80,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840963 - Daniela Camargo Vernilli</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Ligações Químicas e Forças Intermoleculares. Orbitais moleculares e geometria das ligações do carbono. Acidez e basicidade. Reações Orgânicas. Estereoquímica. Principais famílias de compostos de carbono: estrutura e reatividade.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Ligações Químicas Iônicas e Covalentes. Forças intermoleculares e sua relação com as propriedades físicas de compostos orgânicos. Orbitais Moleculares. Geometria das Ligações Covalentes. Conceitos de acidez e basicidade em Química Orgânica. Estereoquímica: diastereoisômeros e enantiômeros. Reações de Substituição Nucleofílica e de Eliminação. Radicais de Carbono e Reatividade. Alcanos, alcenos e alcinos. Composto com grupo acila, álcoois, aminas: formação de poliésteres e poliamidas. Compostos conjugados e aromáticos. Outras famílias de compostos de carbono. Propriedades físicas dos compostos de carbono: relações com a estrutura molecular.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Avaliações escritas envolvendo o conteúdo da disciplina.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Duas avaliações no semestre (P1, P2). MS= (P1+P2)/2, onde: MS= média do semestre. MS&gt; ou = 5,0 = Aluno Aprovado MS&lt; 3,0 = Aluno Reprovado 3,0 &lt; ou = MS &lt; 5,0 = Aluno de Recuperação.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Uma prova (PR), contendo todo o conteúdo da disciplina. O aluno será aprovado se apresentar (média final) MF &gt; ou = 5,0. Onde: MF= MS+PR/2, onde: MS= média do semestre e PR= prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>McMURRY, J. Química Orgânica. Rio de Janeiro: LTC Editora, 1997. - MORRISON, R.T. e BOYD, R.N. Química Orgânica. 12ª. Edição. Lisboa: Fundacão Calouste Gulbenkian, 1995. - SOLOMONS, T.W.G., FRYHLE, C.B. Química Orgânica 1 e 2. 10ª. Edição, Rio de Janeiro: LTC Editora, 2012. - QUINOÁ, E. e RIGUERA, R. Questões e Exercícios de Química Orgânica. São Paulo: MAKRON Books, 1996.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -491,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -680,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -691,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOM3056.xlsx
+++ b/docs/assets/disciplinas/LOM3056.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2016</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>5840963 - Daniela Camargo Vernilli</t>
+    <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -103,19 +103,19 @@
     <t>Critério:</t>
   </si>
   <si>
-    <t>Avaliações escritas envolvendo o conteúdo da disciplina.</t>
+    <t>Avaliações envolvendo o conteúdo da disciplina.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Duas avaliações no semestre (P1, P2). MS= (P1+P2)/2, onde: MS= média do semestre. MS&gt; ou = 5,0 = Aluno Aprovado MS&lt; 3,0 = Aluno Reprovado 3,0 &lt; ou = MS &lt; 5,0 = Aluno de Recuperação.</t>
+    <t>Duas avaliações no semestre (P1, P2). MS= (2xP1+3xP2)/5, onde: MS= média do semestre.MS&gt; ou = 5,0: Aluno AprovadoMS&lt; 3,0: Aluno Reprovado3,0 &lt; ou = MS &lt; 5,0: Aluno de Recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Uma prova (PR), contendo todo o conteúdo da disciplina. O aluno será aprovado se apresentar (média final) MF &gt; ou = 5,0. Onde: MF= MS+PR/2, onde: MS= média do semestre e PR= prova de recuperação.</t>
+    <t>Atividade avaliativa versando sobre o conteúdo da disciplina. O aluno será aprovado se apresentar MF (média final) &gt; ou = 5,0. Onde: MF= (MS+PR)/2, onde: MS= média do semestre e PR= prova de recuperação.</t>
   </si>
   <si>
     <t>Requisitos:</t>

--- a/docs/assets/disciplinas/LOM3056.xlsx
+++ b/docs/assets/disciplinas/LOM3056.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Contextualizar os fundamentos de Química Orgânica na área de Engenharia de Materiais, para permitir que os estudantes estejam aptos à compreensão das estruturas dos compostos orgânicos e sua influência nas propriedades dos materiais e dos principais mecanismos de reação orgânica a serem utilizados na síntese e processamento de materiais polímeros e outros materiais, como aqueles híbridos, por exemplo.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840897 - Clodoaldo Saron</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>1033242 - Fábio Herbst Florenzano</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Ligações Químicas e Forças Intermoleculares. Orbitais moleculares e geometria das ligações do carbono. Acidez e basicidade. Reações Orgânicas. Estereoquímica. Principais famílias de compostos de carbono: estrutura e reatividade.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>Ligações Químicas Iônicas e Covalentes. Forças intermoleculares e sua relação com as propriedades físicas de compostos orgânicos. Orbitais Moleculares. Geometria das Ligações Covalentes. Conceitos de acidez e basicidade em Química Orgânica. Estereoquímica: diastereoisômeros e enantiômeros. Reações de Substituição Nucleofílica e de Eliminação. Radicais de Carbono e Reatividade. Alcanos, alcenos e alcinos. Composto com grupo acila, álcoois, aminas: formação de poliésteres e poliamidas. Compostos conjugados e aromáticos. Outras famílias de compostos de carbono. Propriedades físicas dos compostos de carbono: relações com a estrutura molecular.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1033242 - Fábio Herbst Florenzano</t>
+    <t>Avaliações envolvendo o conteúdo da disciplina.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Avaliações envolvendo o conteúdo da disciplina.</t>
+    <t>Duas avaliações no semestre (P1, P2). MS= (2xP1+3xP2)/5, onde: MS= média do semestre.MS&gt; ou = 5,0: Aluno AprovadoMS&lt; 3,0: Aluno Reprovado3,0 &lt; ou = MS &lt; 5,0: Aluno de Recuperação.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Duas avaliações no semestre (P1, P2). MS= (2xP1+3xP2)/5, onde: MS= média do semestre.MS&gt; ou = 5,0: Aluno AprovadoMS&lt; 3,0: Aluno Reprovado3,0 &lt; ou = MS &lt; 5,0: Aluno de Recuperação.</t>
+    <t>Atividade avaliativa versando sobre o conteúdo da disciplina. O aluno será aprovado se apresentar MF (média final) &gt; ou = 5,0. Onde: MF= (MS+PR)/2, onde: MS= média do semestre e PR= prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Atividade avaliativa versando sobre o conteúdo da disciplina. O aluno será aprovado se apresentar MF (média final) &gt; ou = 5,0. Onde: MF= (MS+PR)/2, onde: MS= média do semestre e PR= prova de recuperação.</t>
+    <t>McMURRY, J. Química Orgânica. 3ª. Edição. Editora Cengage Learning, 2016.- MORRISON, R.T. e BOYD, R.N. Química Orgânica. 16ª. Edição. Lisboa: Fundacão Calouste Gulbenkian, 2011.- SOLOMONS, T.W.G., FRYHLE, C.B. Química Orgânica 1 e 2. 12ª. Edição, Rio de Janeiro: Gen/LTC Editora, 2018.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
